--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chris/Documents/git/homerocentones/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AED226-1505-0E4C-B8CF-F82C38E2D5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB07AA7-A6CE-BC47-B6E4-B0136622523B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="14860" activeTab="1" xr2:uid="{6B5D5ABF-2EFA-B14B-85F0-E3894CEC750F}"/>
   </bookViews>
@@ -62,10 +62,10 @@
     <t>hom_line</t>
   </si>
   <si>
-    <t>part</t>
+    <t>rep</t>
   </si>
   <si>
-    <t>rep</t>
+    <t>segment</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D5ECF8-B9CF-F847-A38F-EAE7011479A1}">
   <dimension ref="A1:G1131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -470,7 +472,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -23067,7 +23069,7 @@
   <dimension ref="A1:G1241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F294" sqref="F294"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23089,10 +23091,10 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
